--- a/src/main/resources/example_enumgen/enum_sample.xlsx
+++ b/src/main/resources/example_enumgen/enum_sample.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">デコード値</t>
   </si>
   <si>
-    <t xml:space="preserve">net.sitsol.victoria.enums</t>
+    <t xml:space="preserve">net.sitsol.victoria.demo.enums</t>
   </si>
   <si>
     <t xml:space="preserve">Flag</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">ON</t>
   </si>
   <si>
-    <t xml:space="preserve">net.sitsol.victoria.enums.sys</t>
+    <t xml:space="preserve">net.sitsol.victoria.demo.enums.sys</t>
   </si>
   <si>
     <t xml:space="preserve">SiteDiv</t>
@@ -764,12 +764,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>

--- a/src/main/resources/example_enumgen/enum_sample.xlsx
+++ b/src/main/resources/example_enumgen/enum_sample.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">携帯電話</t>
   </si>
   <si>
-    <t xml:space="preserve">Tpdoufuken</t>
+    <t xml:space="preserve">Todoufuken</t>
   </si>
   <si>
     <t xml:space="preserve">都道府県</t>
@@ -764,7 +764,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
